--- a/excel/finished/8高炉/高炉冷却壁温度日报表.xlsx
+++ b/excel/finished/8高炉/高炉冷却壁温度日报表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="冷却壁温度" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -852,8 +852,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,37 +1181,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HS33"/>
   <sheetViews>
-    <sheetView topLeftCell="FL1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:FO5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:227" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="17"/>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
@@ -1293,242 +1291,242 @@
       <c r="CU1" s="10"/>
     </row>
     <row r="2" spans="1:227" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>37.85</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12">
         <v>37.195</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12">
         <v>36.344999999999999</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12">
         <v>35.234999999999999</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14">
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12">
         <v>34.384999999999998</v>
       </c>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12">
         <v>33.274999999999999</v>
       </c>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14">
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12">
         <v>32.424999999999997</v>
       </c>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14">
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12">
         <v>31.315000000000001</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14">
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12">
         <v>30.465</v>
       </c>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14">
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12">
         <v>29.355</v>
       </c>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14">
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12">
         <v>28.504999999999999</v>
       </c>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14">
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12">
         <v>27.395</v>
       </c>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="14"/>
-      <c r="BV2" s="14">
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12">
         <v>26.545000000000002</v>
       </c>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14">
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12">
         <v>25.48</v>
       </c>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14">
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12">
         <v>24.66</v>
       </c>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14">
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12">
         <v>23.49</v>
       </c>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="14"/>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="14"/>
-      <c r="CT2" s="14">
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="12"/>
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12">
         <v>22.67</v>
       </c>
-      <c r="CU2" s="14"/>
-      <c r="CV2" s="14"/>
-      <c r="CW2" s="14"/>
-      <c r="CX2" s="14"/>
-      <c r="CY2" s="14"/>
-      <c r="CZ2" s="14">
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="12"/>
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="12">
         <v>21.5</v>
       </c>
-      <c r="DA2" s="14"/>
-      <c r="DB2" s="14"/>
-      <c r="DC2" s="14"/>
-      <c r="DD2" s="14"/>
-      <c r="DE2" s="14"/>
-      <c r="DF2" s="14">
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="12">
         <v>20.68</v>
       </c>
-      <c r="DG2" s="14"/>
-      <c r="DH2" s="14"/>
-      <c r="DI2" s="14"/>
-      <c r="DJ2" s="14"/>
-      <c r="DK2" s="14"/>
-      <c r="DL2" s="14">
+      <c r="DG2" s="12"/>
+      <c r="DH2" s="12"/>
+      <c r="DI2" s="12"/>
+      <c r="DJ2" s="12"/>
+      <c r="DK2" s="12"/>
+      <c r="DL2" s="12">
         <v>19.625</v>
       </c>
-      <c r="DM2" s="14"/>
-      <c r="DN2" s="14"/>
-      <c r="DO2" s="14"/>
-      <c r="DP2" s="14"/>
-      <c r="DQ2" s="14"/>
-      <c r="DR2" s="14">
+      <c r="DM2" s="12"/>
+      <c r="DN2" s="12"/>
+      <c r="DO2" s="12"/>
+      <c r="DP2" s="12"/>
+      <c r="DQ2" s="12"/>
+      <c r="DR2" s="12">
         <v>18.754999999999999</v>
       </c>
-      <c r="DS2" s="14"/>
-      <c r="DT2" s="14"/>
-      <c r="DU2" s="14"/>
-      <c r="DV2" s="14"/>
-      <c r="DW2" s="14"/>
-      <c r="DX2" s="14">
+      <c r="DS2" s="12"/>
+      <c r="DT2" s="12"/>
+      <c r="DU2" s="12"/>
+      <c r="DV2" s="12"/>
+      <c r="DW2" s="12"/>
+      <c r="DX2" s="12">
         <v>17.7</v>
       </c>
-      <c r="DY2" s="14"/>
-      <c r="DZ2" s="14"/>
-      <c r="EA2" s="14"/>
-      <c r="EB2" s="14"/>
-      <c r="EC2" s="14"/>
-      <c r="ED2" s="14">
+      <c r="DY2" s="12"/>
+      <c r="DZ2" s="12"/>
+      <c r="EA2" s="12"/>
+      <c r="EB2" s="12"/>
+      <c r="EC2" s="12"/>
+      <c r="ED2" s="12">
         <v>17.02</v>
       </c>
-      <c r="EE2" s="14"/>
-      <c r="EF2" s="14"/>
-      <c r="EG2" s="14"/>
-      <c r="EH2" s="14"/>
-      <c r="EI2" s="14"/>
-      <c r="EJ2" s="14">
+      <c r="EE2" s="12"/>
+      <c r="EF2" s="12"/>
+      <c r="EG2" s="12"/>
+      <c r="EH2" s="12"/>
+      <c r="EI2" s="12"/>
+      <c r="EJ2" s="12">
         <v>16.14</v>
       </c>
-      <c r="EK2" s="14"/>
-      <c r="EL2" s="14"/>
-      <c r="EM2" s="14"/>
-      <c r="EN2" s="14"/>
-      <c r="EO2" s="14"/>
-      <c r="EP2" s="14">
+      <c r="EK2" s="12"/>
+      <c r="EL2" s="12"/>
+      <c r="EM2" s="12"/>
+      <c r="EN2" s="12"/>
+      <c r="EO2" s="12"/>
+      <c r="EP2" s="12">
         <v>15.46</v>
       </c>
-      <c r="EQ2" s="14"/>
-      <c r="ER2" s="14"/>
-      <c r="ES2" s="14"/>
-      <c r="ET2" s="14"/>
-      <c r="EU2" s="14"/>
-      <c r="EV2" s="14">
+      <c r="EQ2" s="12"/>
+      <c r="ER2" s="12"/>
+      <c r="ES2" s="12"/>
+      <c r="ET2" s="12"/>
+      <c r="EU2" s="12"/>
+      <c r="EV2" s="12">
         <v>11.82</v>
       </c>
-      <c r="EW2" s="14"/>
-      <c r="EX2" s="14"/>
-      <c r="EY2" s="14"/>
-      <c r="EZ2" s="14">
+      <c r="EW2" s="12"/>
+      <c r="EX2" s="12"/>
+      <c r="EY2" s="12"/>
+      <c r="EZ2" s="12">
         <v>10.039999999999999</v>
       </c>
-      <c r="FA2" s="14"/>
-      <c r="FB2" s="14"/>
-      <c r="FC2" s="14"/>
-      <c r="FD2" s="14">
+      <c r="FA2" s="12"/>
+      <c r="FB2" s="12"/>
+      <c r="FC2" s="12"/>
+      <c r="FD2" s="12">
         <v>8.26</v>
       </c>
-      <c r="FE2" s="14"/>
-      <c r="FF2" s="14"/>
-      <c r="FG2" s="14"/>
-      <c r="FH2" s="14">
+      <c r="FE2" s="12"/>
+      <c r="FF2" s="12"/>
+      <c r="FG2" s="12"/>
+      <c r="FH2" s="12">
         <v>6.48</v>
       </c>
-      <c r="FI2" s="14"/>
-      <c r="FJ2" s="14"/>
-      <c r="FK2" s="14"/>
-      <c r="FL2" s="14">
+      <c r="FI2" s="12"/>
+      <c r="FJ2" s="12"/>
+      <c r="FK2" s="12"/>
+      <c r="FL2" s="12">
         <v>4.95</v>
       </c>
-      <c r="FM2" s="14"/>
-      <c r="FN2" s="14"/>
-      <c r="FO2" s="14"/>
+      <c r="FM2" s="12"/>
+      <c r="FN2" s="12"/>
+      <c r="FO2" s="12"/>
     </row>
     <row r="3" spans="1:227" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2041,7 +2039,7 @@
       </c>
     </row>
     <row r="4" spans="1:227" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>172</v>
       </c>
@@ -2553,7 +2551,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:227" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:227" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>173</v>
       </c>
@@ -24888,701 +24886,2741 @@
       <c r="A30" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="7"/>
-      <c r="AR30" s="7"/>
-      <c r="AS30" s="7"/>
-      <c r="AT30" s="7"/>
-      <c r="AU30" s="7"/>
-      <c r="AV30" s="7"/>
-      <c r="AW30" s="7"/>
-      <c r="AX30" s="7"/>
-      <c r="AY30" s="7"/>
-      <c r="AZ30" s="7"/>
-      <c r="BA30" s="7"/>
-      <c r="BB30" s="7"/>
-      <c r="BC30" s="7"/>
-      <c r="BD30" s="7"/>
-      <c r="BE30" s="7"/>
-      <c r="BF30" s="7"/>
-      <c r="BG30" s="7"/>
-      <c r="BH30" s="7"/>
-      <c r="BI30" s="7"/>
-      <c r="BJ30" s="7"/>
-      <c r="BK30" s="7"/>
-      <c r="BL30" s="7"/>
-      <c r="BM30" s="7"/>
-      <c r="BN30" s="7"/>
-      <c r="BO30" s="7"/>
-      <c r="BP30" s="7"/>
-      <c r="BQ30" s="7"/>
-      <c r="BR30" s="7"/>
-      <c r="BS30" s="7"/>
-      <c r="BT30" s="7"/>
-      <c r="BU30" s="7"/>
-      <c r="BV30" s="7"/>
-      <c r="BW30" s="7"/>
-      <c r="BX30" s="7"/>
-      <c r="BY30" s="7"/>
-      <c r="BZ30" s="7"/>
-      <c r="CA30" s="7"/>
-      <c r="CB30" s="7"/>
-      <c r="CC30" s="7"/>
-      <c r="CD30" s="7"/>
-      <c r="CE30" s="7"/>
-      <c r="CF30" s="7"/>
-      <c r="CG30" s="7"/>
-      <c r="CH30" s="7"/>
-      <c r="CI30" s="7"/>
-      <c r="CJ30" s="7"/>
-      <c r="CK30" s="7"/>
-      <c r="CL30" s="7"/>
-      <c r="CM30" s="7"/>
-      <c r="CN30" s="7"/>
-      <c r="CO30" s="7"/>
-      <c r="CP30" s="7"/>
-      <c r="CQ30" s="7"/>
-      <c r="CR30" s="7"/>
-      <c r="CS30" s="7"/>
-      <c r="CT30" s="7"/>
-      <c r="CU30" s="12"/>
-      <c r="CV30" s="12"/>
-      <c r="CW30" s="12"/>
-      <c r="CX30" s="12"/>
-      <c r="CY30" s="12"/>
-      <c r="CZ30" s="12"/>
-      <c r="DA30" s="12"/>
-      <c r="DB30" s="12"/>
-      <c r="DC30" s="12"/>
-      <c r="DD30" s="12"/>
-      <c r="DE30" s="12"/>
-      <c r="DF30" s="12"/>
-      <c r="DG30" s="12"/>
-      <c r="DH30" s="12"/>
-      <c r="DI30" s="12"/>
-      <c r="DJ30" s="12"/>
-      <c r="DK30" s="12"/>
-      <c r="DL30" s="12"/>
-      <c r="DM30" s="12"/>
-      <c r="DN30" s="12"/>
-      <c r="DO30" s="12"/>
-      <c r="DP30" s="12"/>
-      <c r="DQ30" s="12"/>
-      <c r="DR30" s="12"/>
-      <c r="DS30" s="12"/>
-      <c r="DT30" s="12"/>
-      <c r="DU30" s="12"/>
-      <c r="DV30" s="12"/>
-      <c r="DW30" s="12"/>
-      <c r="DX30" s="12"/>
-      <c r="DY30" s="12"/>
-      <c r="DZ30" s="12"/>
-      <c r="EA30" s="12"/>
-      <c r="EB30" s="12"/>
-      <c r="EC30" s="12"/>
-      <c r="ED30" s="12"/>
-      <c r="EE30" s="12"/>
-      <c r="EF30" s="12"/>
-      <c r="EG30" s="12"/>
-      <c r="EH30" s="12"/>
-      <c r="EI30" s="12"/>
-      <c r="EJ30" s="12"/>
-      <c r="EK30" s="12"/>
-      <c r="EL30" s="12"/>
-      <c r="EM30" s="12"/>
-      <c r="EN30" s="12"/>
-      <c r="EO30" s="12"/>
-      <c r="EP30" s="12"/>
-      <c r="EQ30" s="12"/>
-      <c r="ER30" s="12"/>
-      <c r="ES30" s="12"/>
-      <c r="ET30" s="12"/>
-      <c r="EU30" s="12"/>
-      <c r="EV30" s="12"/>
-      <c r="EW30" s="12"/>
-      <c r="EX30" s="12"/>
-      <c r="EY30" s="12"/>
-      <c r="EZ30" s="12"/>
-      <c r="FA30" s="12"/>
-      <c r="FB30" s="12"/>
-      <c r="FC30" s="12"/>
-      <c r="FD30" s="12"/>
-      <c r="FE30" s="12"/>
-      <c r="FF30" s="12"/>
-      <c r="FG30" s="12"/>
-      <c r="FH30" s="12"/>
-      <c r="FI30" s="12"/>
-      <c r="FJ30" s="12"/>
-      <c r="FK30" s="12"/>
-      <c r="FL30" s="12"/>
-      <c r="FM30" s="12"/>
-      <c r="FN30" s="12"/>
-      <c r="FO30" s="12"/>
+      <c r="B30" s="7" t="str">
+        <f>IFERROR(AVERAGE(B6:B13),"")</f>
+        <v/>
+      </c>
+      <c r="C30" s="7" t="str">
+        <f t="shared" ref="C30:BN30" si="0">IFERROR(AVERAGE(C6:C13),"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AY30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AZ30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BA30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BB30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BC30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BD30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BF30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BG30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BH30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BI30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BJ30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BK30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BL30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BM30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BN30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BO30" s="7" t="str">
+        <f t="shared" ref="BO30:DZ30" si="1">IFERROR(AVERAGE(BO6:BO13),"")</f>
+        <v/>
+      </c>
+      <c r="BP30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BQ30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BR30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BS30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BT30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BU30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BV30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BW30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BX30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BY30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BZ30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CA30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CB30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CC30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CD30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CF30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CG30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CH30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CI30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CJ30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CK30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CL30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CM30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CN30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CO30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CP30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CQ30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CR30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CS30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CT30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CU30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CV30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CW30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CX30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CY30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CZ30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DA30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DB30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DC30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DD30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DE30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DF30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DG30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DH30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DI30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DJ30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DK30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DL30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DM30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DN30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DO30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DP30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DQ30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DR30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DS30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DT30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DU30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DV30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DW30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DX30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DY30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DZ30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="EA30" s="7" t="str">
+        <f t="shared" ref="EA30:FO30" si="2">IFERROR(AVERAGE(EA6:EA13),"")</f>
+        <v/>
+      </c>
+      <c r="EB30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EC30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ED30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EE30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EF30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EG30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EH30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EI30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EJ30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EK30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EL30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EM30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EN30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EO30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EP30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EQ30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ER30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ES30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ET30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EU30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EV30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EW30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EX30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EY30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EZ30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FA30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FB30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FC30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FD30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FE30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FF30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FG30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FH30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FI30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FJ30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FK30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FL30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FM30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FN30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FO30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:227" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="7"/>
-      <c r="AP31" s="7"/>
-      <c r="AQ31" s="7"/>
-      <c r="AR31" s="7"/>
-      <c r="AS31" s="7"/>
-      <c r="AT31" s="7"/>
-      <c r="AU31" s="7"/>
-      <c r="AV31" s="7"/>
-      <c r="AW31" s="7"/>
-      <c r="AX31" s="7"/>
-      <c r="AY31" s="7"/>
-      <c r="AZ31" s="7"/>
-      <c r="BA31" s="7"/>
-      <c r="BB31" s="7"/>
-      <c r="BC31" s="7"/>
-      <c r="BD31" s="7"/>
-      <c r="BE31" s="7"/>
-      <c r="BF31" s="7"/>
-      <c r="BG31" s="7"/>
-      <c r="BH31" s="7"/>
-      <c r="BI31" s="7"/>
-      <c r="BJ31" s="7"/>
-      <c r="BK31" s="7"/>
-      <c r="BL31" s="7"/>
-      <c r="BM31" s="7"/>
-      <c r="BN31" s="7"/>
-      <c r="BO31" s="7"/>
-      <c r="BP31" s="7"/>
-      <c r="BQ31" s="7"/>
-      <c r="BR31" s="7"/>
-      <c r="BS31" s="7"/>
-      <c r="BT31" s="7"/>
-      <c r="BU31" s="7"/>
-      <c r="BV31" s="7"/>
-      <c r="BW31" s="7"/>
-      <c r="BX31" s="7"/>
-      <c r="BY31" s="7"/>
-      <c r="BZ31" s="7"/>
-      <c r="CA31" s="7"/>
-      <c r="CB31" s="7"/>
-      <c r="CC31" s="7"/>
-      <c r="CD31" s="7"/>
-      <c r="CE31" s="7"/>
-      <c r="CF31" s="7"/>
-      <c r="CG31" s="7"/>
-      <c r="CH31" s="7"/>
-      <c r="CI31" s="7"/>
-      <c r="CJ31" s="7"/>
-      <c r="CK31" s="7"/>
-      <c r="CL31" s="7"/>
-      <c r="CM31" s="7"/>
-      <c r="CN31" s="7"/>
-      <c r="CO31" s="7"/>
-      <c r="CP31" s="7"/>
-      <c r="CQ31" s="7"/>
-      <c r="CR31" s="7"/>
-      <c r="CS31" s="7"/>
-      <c r="CT31" s="7"/>
-      <c r="CU31" s="12"/>
-      <c r="CV31" s="12"/>
-      <c r="CW31" s="12"/>
-      <c r="CX31" s="12"/>
-      <c r="CY31" s="12"/>
-      <c r="CZ31" s="12"/>
-      <c r="DA31" s="12"/>
-      <c r="DB31" s="12"/>
-      <c r="DC31" s="12"/>
-      <c r="DD31" s="12"/>
-      <c r="DE31" s="12"/>
-      <c r="DF31" s="12"/>
-      <c r="DG31" s="12"/>
-      <c r="DH31" s="12"/>
-      <c r="DI31" s="12"/>
-      <c r="DJ31" s="12"/>
-      <c r="DK31" s="12"/>
-      <c r="DL31" s="12"/>
-      <c r="DM31" s="12"/>
-      <c r="DN31" s="12"/>
-      <c r="DO31" s="12"/>
-      <c r="DP31" s="12"/>
-      <c r="DQ31" s="12"/>
-      <c r="DR31" s="12"/>
-      <c r="DS31" s="12"/>
-      <c r="DT31" s="12"/>
-      <c r="DU31" s="12"/>
-      <c r="DV31" s="12"/>
-      <c r="DW31" s="12"/>
-      <c r="DX31" s="12"/>
-      <c r="DY31" s="12"/>
-      <c r="DZ31" s="12"/>
-      <c r="EA31" s="12"/>
-      <c r="EB31" s="12"/>
-      <c r="EC31" s="12"/>
-      <c r="ED31" s="12"/>
-      <c r="EE31" s="12"/>
-      <c r="EF31" s="12"/>
-      <c r="EG31" s="12"/>
-      <c r="EH31" s="12"/>
-      <c r="EI31" s="12"/>
-      <c r="EJ31" s="12"/>
-      <c r="EK31" s="12"/>
-      <c r="EL31" s="12"/>
-      <c r="EM31" s="12"/>
-      <c r="EN31" s="12"/>
-      <c r="EO31" s="12"/>
-      <c r="EP31" s="12"/>
-      <c r="EQ31" s="12"/>
-      <c r="ER31" s="12"/>
-      <c r="ES31" s="12"/>
-      <c r="ET31" s="12"/>
-      <c r="EU31" s="12"/>
-      <c r="EV31" s="12"/>
-      <c r="EW31" s="12"/>
-      <c r="EX31" s="12"/>
-      <c r="EY31" s="12"/>
-      <c r="EZ31" s="12"/>
-      <c r="FA31" s="12"/>
-      <c r="FB31" s="12"/>
-      <c r="FC31" s="12"/>
-      <c r="FD31" s="12"/>
-      <c r="FE31" s="12"/>
-      <c r="FF31" s="12"/>
-      <c r="FG31" s="12"/>
-      <c r="FH31" s="12"/>
-      <c r="FI31" s="12"/>
-      <c r="FJ31" s="12"/>
-      <c r="FK31" s="12"/>
-      <c r="FL31" s="12"/>
-      <c r="FM31" s="12"/>
-      <c r="FN31" s="12"/>
-      <c r="FO31" s="12"/>
+      <c r="B31" s="7" t="str">
+        <f>IFERROR(AVERAGE(B14:B21),"")</f>
+        <v/>
+      </c>
+      <c r="C31" s="7" t="str">
+        <f t="shared" ref="C31:BN31" si="3">IFERROR(AVERAGE(C14:C21),"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AG31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AH31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AI31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AK31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AL31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AN31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AO31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AS31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AT31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AU31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AW31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AX31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AY31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AZ31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BA31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BB31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BC31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BD31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BE31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BG31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BH31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BI31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BJ31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BK31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BL31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BM31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BN31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BO31" s="7" t="str">
+        <f t="shared" ref="BO31:DZ31" si="4">IFERROR(AVERAGE(BO14:BO21),"")</f>
+        <v/>
+      </c>
+      <c r="BP31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BQ31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BR31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BS31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BT31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BU31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BV31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BW31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BX31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BY31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BZ31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CA31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CB31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CC31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CD31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CE31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CF31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CG31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CH31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CI31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CJ31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CK31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CL31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CM31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CN31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CO31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CP31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CQ31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CR31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CS31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CT31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CU31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CV31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CW31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CX31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CY31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CZ31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DA31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DB31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DC31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DD31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DE31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DF31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DG31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DH31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DI31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DJ31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DK31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DL31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DM31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DN31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DO31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DP31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DQ31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DR31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DS31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DT31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DU31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DV31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DW31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DX31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DY31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DZ31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="EA31" s="7" t="str">
+        <f t="shared" ref="EA31:FO31" si="5">IFERROR(AVERAGE(EA14:EA21),"")</f>
+        <v/>
+      </c>
+      <c r="EB31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EC31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="ED31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EE31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EF31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EG31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EH31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EI31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EJ31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EK31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EL31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EM31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EN31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EO31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EP31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EQ31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="ER31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="ES31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="ET31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EU31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EV31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EW31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EX31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EY31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EZ31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FA31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FB31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FC31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FD31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FE31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FF31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FG31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FH31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FI31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FJ31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FK31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FL31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FM31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FN31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="FO31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:227" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
-      <c r="AJ32" s="7"/>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="7"/>
-      <c r="AR32" s="7"/>
-      <c r="AS32" s="7"/>
-      <c r="AT32" s="7"/>
-      <c r="AU32" s="7"/>
-      <c r="AV32" s="7"/>
-      <c r="AW32" s="7"/>
-      <c r="AX32" s="7"/>
-      <c r="AY32" s="7"/>
-      <c r="AZ32" s="7"/>
-      <c r="BA32" s="7"/>
-      <c r="BB32" s="7"/>
-      <c r="BC32" s="7"/>
-      <c r="BD32" s="7"/>
-      <c r="BE32" s="7"/>
-      <c r="BF32" s="7"/>
-      <c r="BG32" s="7"/>
-      <c r="BH32" s="7"/>
-      <c r="BI32" s="7"/>
-      <c r="BJ32" s="7"/>
-      <c r="BK32" s="7"/>
-      <c r="BL32" s="7"/>
-      <c r="BM32" s="7"/>
-      <c r="BN32" s="7"/>
-      <c r="BO32" s="7"/>
-      <c r="BP32" s="7"/>
-      <c r="BQ32" s="7"/>
-      <c r="BR32" s="7"/>
-      <c r="BS32" s="7"/>
-      <c r="BT32" s="7"/>
-      <c r="BU32" s="7"/>
-      <c r="BV32" s="7"/>
-      <c r="BW32" s="7"/>
-      <c r="BX32" s="7"/>
-      <c r="BY32" s="7"/>
-      <c r="BZ32" s="7"/>
-      <c r="CA32" s="7"/>
-      <c r="CB32" s="7"/>
-      <c r="CC32" s="7"/>
-      <c r="CD32" s="7"/>
-      <c r="CE32" s="7"/>
-      <c r="CF32" s="7"/>
-      <c r="CG32" s="7"/>
-      <c r="CH32" s="7"/>
-      <c r="CI32" s="7"/>
-      <c r="CJ32" s="7"/>
-      <c r="CK32" s="7"/>
-      <c r="CL32" s="7"/>
-      <c r="CM32" s="7"/>
-      <c r="CN32" s="7"/>
-      <c r="CO32" s="7"/>
-      <c r="CP32" s="7"/>
-      <c r="CQ32" s="7"/>
-      <c r="CR32" s="7"/>
-      <c r="CS32" s="7"/>
-      <c r="CT32" s="7"/>
-      <c r="CU32" s="12"/>
-      <c r="CV32" s="12"/>
-      <c r="CW32" s="12"/>
-      <c r="CX32" s="12"/>
-      <c r="CY32" s="12"/>
-      <c r="CZ32" s="12"/>
-      <c r="DA32" s="12"/>
-      <c r="DB32" s="12"/>
-      <c r="DC32" s="12"/>
-      <c r="DD32" s="12"/>
-      <c r="DE32" s="12"/>
-      <c r="DF32" s="12"/>
-      <c r="DG32" s="12"/>
-      <c r="DH32" s="12"/>
-      <c r="DI32" s="12"/>
-      <c r="DJ32" s="12"/>
-      <c r="DK32" s="12"/>
-      <c r="DL32" s="12"/>
-      <c r="DM32" s="12"/>
-      <c r="DN32" s="12"/>
-      <c r="DO32" s="12"/>
-      <c r="DP32" s="12"/>
-      <c r="DQ32" s="12"/>
-      <c r="DR32" s="12"/>
-      <c r="DS32" s="12"/>
-      <c r="DT32" s="12"/>
-      <c r="DU32" s="12"/>
-      <c r="DV32" s="12"/>
-      <c r="DW32" s="12"/>
-      <c r="DX32" s="12"/>
-      <c r="DY32" s="12"/>
-      <c r="DZ32" s="12"/>
-      <c r="EA32" s="12"/>
-      <c r="EB32" s="12"/>
-      <c r="EC32" s="12"/>
-      <c r="ED32" s="12"/>
-      <c r="EE32" s="12"/>
-      <c r="EF32" s="12"/>
-      <c r="EG32" s="12"/>
-      <c r="EH32" s="12"/>
-      <c r="EI32" s="12"/>
-      <c r="EJ32" s="12"/>
-      <c r="EK32" s="12"/>
-      <c r="EL32" s="12"/>
-      <c r="EM32" s="12"/>
-      <c r="EN32" s="12"/>
-      <c r="EO32" s="12"/>
-      <c r="EP32" s="12"/>
-      <c r="EQ32" s="12"/>
-      <c r="ER32" s="12"/>
-      <c r="ES32" s="12"/>
-      <c r="ET32" s="12"/>
-      <c r="EU32" s="12"/>
-      <c r="EV32" s="12"/>
-      <c r="EW32" s="12"/>
-      <c r="EX32" s="12"/>
-      <c r="EY32" s="12"/>
-      <c r="EZ32" s="12"/>
-      <c r="FA32" s="12"/>
-      <c r="FB32" s="12"/>
-      <c r="FC32" s="12"/>
-      <c r="FD32" s="12"/>
-      <c r="FE32" s="12"/>
-      <c r="FF32" s="12"/>
-      <c r="FG32" s="12"/>
-      <c r="FH32" s="12"/>
-      <c r="FI32" s="12"/>
-      <c r="FJ32" s="12"/>
-      <c r="FK32" s="12"/>
-      <c r="FL32" s="12"/>
-      <c r="FM32" s="12"/>
-      <c r="FN32" s="12"/>
-      <c r="FO32" s="12"/>
+      <c r="B32" s="7" t="str">
+        <f>IFERROR(AVERAGE(B22:B29),"")</f>
+        <v/>
+      </c>
+      <c r="C32" s="7" t="str">
+        <f t="shared" ref="C32:BN32" si="6">IFERROR(AVERAGE(C22:C29),"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AE32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AF32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AG32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AH32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AO32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AR32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AS32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AT32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AU32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BC32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BD32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BE32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BF32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BG32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BH32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BI32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BJ32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BK32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BL32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BM32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BN32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BO32" s="7" t="str">
+        <f t="shared" ref="BO32:DZ32" si="7">IFERROR(AVERAGE(BO22:BO29),"")</f>
+        <v/>
+      </c>
+      <c r="BP32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BQ32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BR32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BS32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BT32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BU32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BV32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BW32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BX32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BY32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BZ32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CA32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CB32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CC32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CD32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CE32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CF32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CG32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CH32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CI32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CJ32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CK32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CL32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CM32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CN32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CO32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CP32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CQ32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CR32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CS32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CT32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CU32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CV32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CW32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CX32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CY32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CZ32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DA32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DB32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DC32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DD32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DE32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DF32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DG32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DH32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DI32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DJ32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DK32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DL32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DM32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DN32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DO32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DP32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DQ32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DR32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DS32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DT32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DU32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DV32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DW32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DX32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DY32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DZ32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="EA32" s="7" t="str">
+        <f t="shared" ref="EA32:FO32" si="8">IFERROR(AVERAGE(EA22:EA29),"")</f>
+        <v/>
+      </c>
+      <c r="EB32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EC32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="ED32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EE32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EF32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EG32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EH32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EI32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EJ32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EK32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EL32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EM32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EN32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EO32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EP32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EQ32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="ER32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="ES32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="ET32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EU32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EV32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EW32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EX32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EY32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EZ32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FA32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FB32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FC32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FD32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FE32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FF32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FG32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FH32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FI32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FJ32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FK32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FL32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FM32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FN32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FO32" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
-    <row r="33" spans="1:171" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:171" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="9"/>
-      <c r="AU33" s="9"/>
-      <c r="AV33" s="9"/>
-      <c r="AW33" s="9"/>
-      <c r="AX33" s="9"/>
-      <c r="AY33" s="9"/>
-      <c r="AZ33" s="9"/>
-      <c r="BA33" s="9"/>
-      <c r="BB33" s="9"/>
-      <c r="BC33" s="9"/>
-      <c r="BD33" s="9"/>
-      <c r="BE33" s="9"/>
-      <c r="BF33" s="9"/>
-      <c r="BG33" s="9"/>
-      <c r="BH33" s="9"/>
-      <c r="BI33" s="9"/>
-      <c r="BJ33" s="9"/>
-      <c r="BK33" s="9"/>
-      <c r="BL33" s="9"/>
-      <c r="BM33" s="9"/>
-      <c r="BN33" s="9"/>
-      <c r="BO33" s="9"/>
-      <c r="BP33" s="9"/>
-      <c r="BQ33" s="9"/>
-      <c r="BR33" s="9"/>
-      <c r="BS33" s="9"/>
-      <c r="BT33" s="9"/>
-      <c r="BU33" s="9"/>
-      <c r="BV33" s="9"/>
-      <c r="BW33" s="9"/>
-      <c r="BX33" s="9"/>
-      <c r="BY33" s="9"/>
-      <c r="BZ33" s="9"/>
-      <c r="CA33" s="9"/>
-      <c r="CB33" s="9"/>
-      <c r="CC33" s="9"/>
-      <c r="CD33" s="9"/>
-      <c r="CE33" s="9"/>
-      <c r="CF33" s="9"/>
-      <c r="CG33" s="9"/>
-      <c r="CH33" s="9"/>
-      <c r="CI33" s="9"/>
-      <c r="CJ33" s="9"/>
-      <c r="CK33" s="9"/>
-      <c r="CL33" s="9"/>
-      <c r="CM33" s="9"/>
-      <c r="CN33" s="9"/>
-      <c r="CO33" s="9"/>
-      <c r="CP33" s="9"/>
-      <c r="CQ33" s="9"/>
-      <c r="CR33" s="9"/>
-      <c r="CS33" s="9"/>
-      <c r="CT33" s="9"/>
-      <c r="CU33" s="13"/>
-      <c r="CV33" s="13"/>
-      <c r="CW33" s="13"/>
-      <c r="CX33" s="13"/>
-      <c r="CY33" s="13"/>
-      <c r="CZ33" s="13"/>
-      <c r="DA33" s="13"/>
-      <c r="DB33" s="13"/>
-      <c r="DC33" s="13"/>
-      <c r="DD33" s="13"/>
-      <c r="DE33" s="13"/>
-      <c r="DF33" s="13"/>
-      <c r="DG33" s="13"/>
-      <c r="DH33" s="13"/>
-      <c r="DI33" s="13"/>
-      <c r="DJ33" s="13"/>
-      <c r="DK33" s="13"/>
-      <c r="DL33" s="13"/>
-      <c r="DM33" s="13"/>
-      <c r="DN33" s="13"/>
-      <c r="DO33" s="13"/>
-      <c r="DP33" s="13"/>
-      <c r="DQ33" s="13"/>
-      <c r="DR33" s="13"/>
-      <c r="DS33" s="13"/>
-      <c r="DT33" s="13"/>
-      <c r="DU33" s="13"/>
-      <c r="DV33" s="13"/>
-      <c r="DW33" s="13"/>
-      <c r="DX33" s="13"/>
-      <c r="DY33" s="13"/>
-      <c r="DZ33" s="13"/>
-      <c r="EA33" s="13"/>
-      <c r="EB33" s="13"/>
-      <c r="EC33" s="13"/>
-      <c r="ED33" s="13"/>
-      <c r="EE33" s="13"/>
-      <c r="EF33" s="13"/>
-      <c r="EG33" s="13"/>
-      <c r="EH33" s="13"/>
-      <c r="EI33" s="13"/>
-      <c r="EJ33" s="13"/>
-      <c r="EK33" s="13"/>
-      <c r="EL33" s="13"/>
-      <c r="EM33" s="13"/>
-      <c r="EN33" s="13"/>
-      <c r="EO33" s="13"/>
-      <c r="EP33" s="13"/>
-      <c r="EQ33" s="13"/>
-      <c r="ER33" s="13"/>
-      <c r="ES33" s="13"/>
-      <c r="ET33" s="13"/>
-      <c r="EU33" s="13"/>
-      <c r="EV33" s="13"/>
-      <c r="EW33" s="13"/>
-      <c r="EX33" s="13"/>
-      <c r="EY33" s="13"/>
-      <c r="EZ33" s="13"/>
-      <c r="FA33" s="13"/>
-      <c r="FB33" s="13"/>
-      <c r="FC33" s="13"/>
-      <c r="FD33" s="13"/>
-      <c r="FE33" s="13"/>
-      <c r="FF33" s="13"/>
-      <c r="FG33" s="13"/>
-      <c r="FH33" s="13"/>
-      <c r="FI33" s="13"/>
-      <c r="FJ33" s="13"/>
-      <c r="FK33" s="13"/>
-      <c r="FL33" s="13"/>
-      <c r="FM33" s="13"/>
-      <c r="FN33" s="13"/>
-      <c r="FO33" s="13"/>
+      <c r="B33" s="9" t="str">
+        <f>IFERROR(AVERAGE(B6:B29),"")</f>
+        <v/>
+      </c>
+      <c r="C33" s="9" t="str">
+        <f t="shared" ref="C33:BN33" si="9">IFERROR(AVERAGE(C6:C29),"")</f>
+        <v/>
+      </c>
+      <c r="D33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AE33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AF33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AI33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AK33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AL33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AM33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AN33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AO33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AQ33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AR33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AS33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AT33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AU33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AV33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AW33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AX33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AY33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AZ33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BA33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BB33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BC33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BD33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BE33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BF33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BG33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BH33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BI33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BJ33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BK33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BL33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BM33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BN33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BO33" s="9" t="str">
+        <f t="shared" ref="BO33:DZ33" si="10">IFERROR(AVERAGE(BO6:BO29),"")</f>
+        <v/>
+      </c>
+      <c r="BP33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BQ33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BR33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BS33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BT33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BU33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BV33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BW33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BX33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BY33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BZ33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CA33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CB33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CC33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CD33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CE33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CF33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CG33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CH33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CI33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CJ33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CK33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CL33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CM33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CN33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CO33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CP33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CQ33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CR33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CS33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CT33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CU33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CV33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CW33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CX33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CY33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CZ33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DA33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DB33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DC33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DD33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DE33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DF33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DG33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DH33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DI33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DJ33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DK33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DL33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DM33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DN33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DO33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DP33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DQ33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DR33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DS33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DT33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DU33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DV33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DW33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DX33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DY33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DZ33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="EA33" s="9" t="str">
+        <f t="shared" ref="EA33:FO33" si="11">IFERROR(AVERAGE(EA6:EA29),"")</f>
+        <v/>
+      </c>
+      <c r="EB33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EC33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="ED33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EE33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EF33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EG33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EH33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EI33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EJ33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EK33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EL33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EM33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EN33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EO33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EP33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EQ33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="ER33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="ES33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="ET33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EU33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EV33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EW33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EX33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EY33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EZ33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FA33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FB33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FC33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FD33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FE33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FF33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FG33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FH33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FI33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FJ33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FK33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FL33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FM33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FN33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="FO33" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -25629,7 +27667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FN1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/8高炉/高炉冷却壁温度日报表.xlsx
+++ b/excel/finished/8高炉/高炉冷却壁温度日报表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\8高炉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\pro\steel\excel\finished\8高炉\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="冷却壁温度" sheetId="1" r:id="rId1"/>
-    <sheet name="_tag_day_all" sheetId="2" r:id="rId2"/>
-    <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
+    <sheet name="_tag_day_all" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -852,6 +852,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,15 +868,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,36 +1182,36 @@
   <dimension ref="A1:HS33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:227" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="14"/>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
@@ -1291,242 +1291,242 @@
       <c r="CU1" s="10"/>
     </row>
     <row r="2" spans="1:227" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="15">
         <v>37.85</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15">
         <v>37.195</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15">
         <v>36.344999999999999</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15">
         <v>35.234999999999999</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12">
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15">
         <v>34.384999999999998</v>
       </c>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12">
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15">
         <v>33.274999999999999</v>
       </c>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12">
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15">
         <v>32.424999999999997</v>
       </c>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12">
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15">
         <v>31.315000000000001</v>
       </c>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12">
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15">
         <v>30.465</v>
       </c>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12">
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15">
         <v>29.355</v>
       </c>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12">
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15">
         <v>28.504999999999999</v>
       </c>
-      <c r="BK2" s="12"/>
-      <c r="BL2" s="12"/>
-      <c r="BM2" s="12"/>
-      <c r="BN2" s="12"/>
-      <c r="BO2" s="12"/>
-      <c r="BP2" s="12">
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15">
         <v>27.395</v>
       </c>
-      <c r="BQ2" s="12"/>
-      <c r="BR2" s="12"/>
-      <c r="BS2" s="12"/>
-      <c r="BT2" s="12"/>
-      <c r="BU2" s="12"/>
-      <c r="BV2" s="12">
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15">
         <v>26.545000000000002</v>
       </c>
-      <c r="BW2" s="12"/>
-      <c r="BX2" s="12"/>
-      <c r="BY2" s="12"/>
-      <c r="BZ2" s="12"/>
-      <c r="CA2" s="12"/>
-      <c r="CB2" s="12">
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15">
         <v>25.48</v>
       </c>
-      <c r="CC2" s="12"/>
-      <c r="CD2" s="12"/>
-      <c r="CE2" s="12"/>
-      <c r="CF2" s="12"/>
-      <c r="CG2" s="12"/>
-      <c r="CH2" s="12">
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15">
         <v>24.66</v>
       </c>
-      <c r="CI2" s="12"/>
-      <c r="CJ2" s="12"/>
-      <c r="CK2" s="12"/>
-      <c r="CL2" s="12"/>
-      <c r="CM2" s="12"/>
-      <c r="CN2" s="12">
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15">
         <v>23.49</v>
       </c>
-      <c r="CO2" s="12"/>
-      <c r="CP2" s="12"/>
-      <c r="CQ2" s="12"/>
-      <c r="CR2" s="12"/>
-      <c r="CS2" s="12"/>
-      <c r="CT2" s="12">
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15">
         <v>22.67</v>
       </c>
-      <c r="CU2" s="12"/>
-      <c r="CV2" s="12"/>
-      <c r="CW2" s="12"/>
-      <c r="CX2" s="12"/>
-      <c r="CY2" s="12"/>
-      <c r="CZ2" s="12">
+      <c r="CU2" s="15"/>
+      <c r="CV2" s="15"/>
+      <c r="CW2" s="15"/>
+      <c r="CX2" s="15"/>
+      <c r="CY2" s="15"/>
+      <c r="CZ2" s="15">
         <v>21.5</v>
       </c>
-      <c r="DA2" s="12"/>
-      <c r="DB2" s="12"/>
-      <c r="DC2" s="12"/>
-      <c r="DD2" s="12"/>
-      <c r="DE2" s="12"/>
-      <c r="DF2" s="12">
+      <c r="DA2" s="15"/>
+      <c r="DB2" s="15"/>
+      <c r="DC2" s="15"/>
+      <c r="DD2" s="15"/>
+      <c r="DE2" s="15"/>
+      <c r="DF2" s="15">
         <v>20.68</v>
       </c>
-      <c r="DG2" s="12"/>
-      <c r="DH2" s="12"/>
-      <c r="DI2" s="12"/>
-      <c r="DJ2" s="12"/>
-      <c r="DK2" s="12"/>
-      <c r="DL2" s="12">
+      <c r="DG2" s="15"/>
+      <c r="DH2" s="15"/>
+      <c r="DI2" s="15"/>
+      <c r="DJ2" s="15"/>
+      <c r="DK2" s="15"/>
+      <c r="DL2" s="15">
         <v>19.625</v>
       </c>
-      <c r="DM2" s="12"/>
-      <c r="DN2" s="12"/>
-      <c r="DO2" s="12"/>
-      <c r="DP2" s="12"/>
-      <c r="DQ2" s="12"/>
-      <c r="DR2" s="12">
+      <c r="DM2" s="15"/>
+      <c r="DN2" s="15"/>
+      <c r="DO2" s="15"/>
+      <c r="DP2" s="15"/>
+      <c r="DQ2" s="15"/>
+      <c r="DR2" s="15">
         <v>18.754999999999999</v>
       </c>
-      <c r="DS2" s="12"/>
-      <c r="DT2" s="12"/>
-      <c r="DU2" s="12"/>
-      <c r="DV2" s="12"/>
-      <c r="DW2" s="12"/>
-      <c r="DX2" s="12">
+      <c r="DS2" s="15"/>
+      <c r="DT2" s="15"/>
+      <c r="DU2" s="15"/>
+      <c r="DV2" s="15"/>
+      <c r="DW2" s="15"/>
+      <c r="DX2" s="15">
         <v>17.7</v>
       </c>
-      <c r="DY2" s="12"/>
-      <c r="DZ2" s="12"/>
-      <c r="EA2" s="12"/>
-      <c r="EB2" s="12"/>
-      <c r="EC2" s="12"/>
-      <c r="ED2" s="12">
+      <c r="DY2" s="15"/>
+      <c r="DZ2" s="15"/>
+      <c r="EA2" s="15"/>
+      <c r="EB2" s="15"/>
+      <c r="EC2" s="15"/>
+      <c r="ED2" s="15">
         <v>17.02</v>
       </c>
-      <c r="EE2" s="12"/>
-      <c r="EF2" s="12"/>
-      <c r="EG2" s="12"/>
-      <c r="EH2" s="12"/>
-      <c r="EI2" s="12"/>
-      <c r="EJ2" s="12">
+      <c r="EE2" s="15"/>
+      <c r="EF2" s="15"/>
+      <c r="EG2" s="15"/>
+      <c r="EH2" s="15"/>
+      <c r="EI2" s="15"/>
+      <c r="EJ2" s="15">
         <v>16.14</v>
       </c>
-      <c r="EK2" s="12"/>
-      <c r="EL2" s="12"/>
-      <c r="EM2" s="12"/>
-      <c r="EN2" s="12"/>
-      <c r="EO2" s="12"/>
-      <c r="EP2" s="12">
+      <c r="EK2" s="15"/>
+      <c r="EL2" s="15"/>
+      <c r="EM2" s="15"/>
+      <c r="EN2" s="15"/>
+      <c r="EO2" s="15"/>
+      <c r="EP2" s="15">
         <v>15.46</v>
       </c>
-      <c r="EQ2" s="12"/>
-      <c r="ER2" s="12"/>
-      <c r="ES2" s="12"/>
-      <c r="ET2" s="12"/>
-      <c r="EU2" s="12"/>
-      <c r="EV2" s="12">
+      <c r="EQ2" s="15"/>
+      <c r="ER2" s="15"/>
+      <c r="ES2" s="15"/>
+      <c r="ET2" s="15"/>
+      <c r="EU2" s="15"/>
+      <c r="EV2" s="15">
         <v>11.82</v>
       </c>
-      <c r="EW2" s="12"/>
-      <c r="EX2" s="12"/>
-      <c r="EY2" s="12"/>
-      <c r="EZ2" s="12">
+      <c r="EW2" s="15"/>
+      <c r="EX2" s="15"/>
+      <c r="EY2" s="15"/>
+      <c r="EZ2" s="15">
         <v>10.039999999999999</v>
       </c>
-      <c r="FA2" s="12"/>
-      <c r="FB2" s="12"/>
-      <c r="FC2" s="12"/>
-      <c r="FD2" s="12">
+      <c r="FA2" s="15"/>
+      <c r="FB2" s="15"/>
+      <c r="FC2" s="15"/>
+      <c r="FD2" s="15">
         <v>8.26</v>
       </c>
-      <c r="FE2" s="12"/>
-      <c r="FF2" s="12"/>
-      <c r="FG2" s="12"/>
-      <c r="FH2" s="12">
+      <c r="FE2" s="15"/>
+      <c r="FF2" s="15"/>
+      <c r="FG2" s="15"/>
+      <c r="FH2" s="15">
         <v>6.48</v>
       </c>
-      <c r="FI2" s="12"/>
-      <c r="FJ2" s="12"/>
-      <c r="FK2" s="12"/>
-      <c r="FL2" s="12">
+      <c r="FI2" s="15"/>
+      <c r="FJ2" s="15"/>
+      <c r="FK2" s="15"/>
+      <c r="FL2" s="15">
         <v>4.95</v>
       </c>
-      <c r="FM2" s="12"/>
-      <c r="FN2" s="12"/>
-      <c r="FO2" s="12"/>
+      <c r="FM2" s="15"/>
+      <c r="FN2" s="15"/>
+      <c r="FO2" s="15"/>
     </row>
     <row r="3" spans="1:227" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
     </row>
     <row r="4" spans="1:227" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>172</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:227" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:227" ht="0.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>173</v>
       </c>
@@ -27624,22 +27624,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="DF2:DK2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BP2:BU2"/>
-    <mergeCell ref="BV2:CA2"/>
-    <mergeCell ref="CB2:CG2"/>
     <mergeCell ref="FL2:FO2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="EP2:EU2"/>
@@ -27656,6 +27640,22 @@
     <mergeCell ref="CN2:CS2"/>
     <mergeCell ref="CT2:CY2"/>
     <mergeCell ref="CZ2:DE2"/>
+    <mergeCell ref="DF2:DK2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BP2:BU2"/>
+    <mergeCell ref="BV2:CA2"/>
+    <mergeCell ref="CB2:CG2"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/8高炉/高炉冷却壁温度日报表.xlsx
+++ b/excel/finished/8高炉/高炉冷却壁温度日报表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\pro\steel\excel\finished\8高炉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\8高炉\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="冷却壁温度" sheetId="1" r:id="rId1"/>
-    <sheet name="_tag_day_all" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="_tag_day_all" sheetId="2" r:id="rId2"/>
+    <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
     <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:HS33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2551,7 +2551,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:227" ht="0.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:227" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>173</v>
       </c>

--- a/excel/finished/8高炉/高炉冷却壁温度日报表.xlsx
+++ b/excel/finished/8高炉/高炉冷却壁温度日报表.xlsx
@@ -15,14 +15,14 @@
     <sheet name="冷却壁温度" sheetId="1" r:id="rId1"/>
     <sheet name="_tag_day_all" sheetId="2" r:id="rId2"/>
     <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="349">
   <si>
     <t>高炉冷却壁温度日报表</t>
   </si>
@@ -559,66 +559,6 @@
   </si>
   <si>
     <t>_dictionary</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>TemplateName</t>
-  </si>
-  <si>
-    <t>高炉冷却壁温度 日报</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>日报表</t>
-  </si>
-  <si>
-    <t>TemplatePath</t>
-  </si>
-  <si>
-    <t>D:\template\8高炉\高炉冷却壁温度日报表.xlsx</t>
-  </si>
-  <si>
-    <t>AutoBuild</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>cn_zh</t>
-  </si>
-  <si>
-    <t>BlowingInDate</t>
-  </si>
-  <si>
-    <t>2018-12-03</t>
-  </si>
-  <si>
-    <t>Build_Type</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
-    <t>Build_StartTime</t>
-  </si>
-  <si>
-    <t>2018-12-03 11:39:07</t>
-  </si>
-  <si>
-    <t>Build_EndTime</t>
-  </si>
-  <si>
-    <t>ExcelFile</t>
-  </si>
-  <si>
-    <t>D:\excel\cn_zh\8高炉\日报表\高炉冷却壁温度 日报_2018-12-03_11.xlsx</t>
   </si>
   <si>
     <t>TE05035_6</t>
@@ -1207,7 +1147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1334,11 +1274,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1362,6 +1313,9 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,13 +1325,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1691,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ET1" workbookViewId="0">
-      <selection activeCell="FF39" sqref="FF39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1701,28 +1655,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:171" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
+      </c>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
       <c r="W1" s="6"/>
@@ -1804,755 +1761,755 @@
       <c r="CU1" s="6"/>
     </row>
     <row r="2" spans="1:171" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>37.85</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12">
         <v>37.195</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12">
         <v>36.344999999999999</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12">
         <v>35.234999999999999</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11">
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12">
         <v>34.384999999999998</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12">
         <v>33.274999999999999</v>
       </c>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11">
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12">
         <v>32.424999999999997</v>
       </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11">
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12">
         <v>31.315000000000001</v>
       </c>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11">
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12">
         <v>30.465</v>
       </c>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11">
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12">
         <v>29.355</v>
       </c>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11">
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12">
         <v>28.504999999999999</v>
       </c>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11">
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12">
         <v>27.395</v>
       </c>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="11">
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12">
         <v>26.545000000000002</v>
       </c>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="11"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="11"/>
-      <c r="CB2" s="11">
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12">
         <v>25.48</v>
       </c>
-      <c r="CC2" s="11"/>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="11"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11"/>
-      <c r="CH2" s="11">
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12">
         <v>24.66</v>
       </c>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="11"/>
-      <c r="CL2" s="11"/>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="11">
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12">
         <v>23.49</v>
       </c>
-      <c r="CO2" s="11"/>
-      <c r="CP2" s="11"/>
-      <c r="CQ2" s="11"/>
-      <c r="CR2" s="11"/>
-      <c r="CS2" s="11"/>
-      <c r="CT2" s="11">
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="12"/>
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12">
         <v>22.67</v>
       </c>
-      <c r="CU2" s="11"/>
-      <c r="CV2" s="11"/>
-      <c r="CW2" s="11"/>
-      <c r="CX2" s="11"/>
-      <c r="CY2" s="11"/>
-      <c r="CZ2" s="11">
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="12"/>
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="12">
         <v>21.5</v>
       </c>
-      <c r="DA2" s="11"/>
-      <c r="DB2" s="11"/>
-      <c r="DC2" s="11"/>
-      <c r="DD2" s="11"/>
-      <c r="DE2" s="11"/>
-      <c r="DF2" s="11">
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="12">
         <v>20.68</v>
       </c>
-      <c r="DG2" s="11"/>
-      <c r="DH2" s="11"/>
-      <c r="DI2" s="11"/>
-      <c r="DJ2" s="11"/>
-      <c r="DK2" s="11"/>
-      <c r="DL2" s="11">
+      <c r="DG2" s="12"/>
+      <c r="DH2" s="12"/>
+      <c r="DI2" s="12"/>
+      <c r="DJ2" s="12"/>
+      <c r="DK2" s="12"/>
+      <c r="DL2" s="12">
         <v>19.625</v>
       </c>
-      <c r="DM2" s="11"/>
-      <c r="DN2" s="11"/>
-      <c r="DO2" s="11"/>
-      <c r="DP2" s="11"/>
-      <c r="DQ2" s="11"/>
-      <c r="DR2" s="11">
+      <c r="DM2" s="12"/>
+      <c r="DN2" s="12"/>
+      <c r="DO2" s="12"/>
+      <c r="DP2" s="12"/>
+      <c r="DQ2" s="12"/>
+      <c r="DR2" s="12">
         <v>18.754999999999999</v>
       </c>
-      <c r="DS2" s="11"/>
-      <c r="DT2" s="11"/>
-      <c r="DU2" s="11"/>
-      <c r="DV2" s="11"/>
-      <c r="DW2" s="11"/>
-      <c r="DX2" s="11">
+      <c r="DS2" s="12"/>
+      <c r="DT2" s="12"/>
+      <c r="DU2" s="12"/>
+      <c r="DV2" s="12"/>
+      <c r="DW2" s="12"/>
+      <c r="DX2" s="12">
         <v>17.7</v>
       </c>
-      <c r="DY2" s="11"/>
-      <c r="DZ2" s="11"/>
-      <c r="EA2" s="11"/>
-      <c r="EB2" s="11"/>
-      <c r="EC2" s="11"/>
-      <c r="ED2" s="11">
+      <c r="DY2" s="12"/>
+      <c r="DZ2" s="12"/>
+      <c r="EA2" s="12"/>
+      <c r="EB2" s="12"/>
+      <c r="EC2" s="12"/>
+      <c r="ED2" s="12">
         <v>17.02</v>
       </c>
-      <c r="EE2" s="11"/>
-      <c r="EF2" s="11"/>
-      <c r="EG2" s="11"/>
-      <c r="EH2" s="11"/>
-      <c r="EI2" s="11"/>
-      <c r="EJ2" s="11">
+      <c r="EE2" s="12"/>
+      <c r="EF2" s="12"/>
+      <c r="EG2" s="12"/>
+      <c r="EH2" s="12"/>
+      <c r="EI2" s="12"/>
+      <c r="EJ2" s="12">
         <v>16.14</v>
       </c>
-      <c r="EK2" s="11"/>
-      <c r="EL2" s="11"/>
-      <c r="EM2" s="11"/>
-      <c r="EN2" s="11"/>
-      <c r="EO2" s="11"/>
-      <c r="EP2" s="11">
+      <c r="EK2" s="12"/>
+      <c r="EL2" s="12"/>
+      <c r="EM2" s="12"/>
+      <c r="EN2" s="12"/>
+      <c r="EO2" s="12"/>
+      <c r="EP2" s="12">
         <v>15.46</v>
       </c>
-      <c r="EQ2" s="11"/>
-      <c r="ER2" s="11"/>
-      <c r="ES2" s="11"/>
-      <c r="ET2" s="11"/>
-      <c r="EU2" s="11"/>
-      <c r="EV2" s="11">
+      <c r="EQ2" s="12"/>
+      <c r="ER2" s="12"/>
+      <c r="ES2" s="12"/>
+      <c r="ET2" s="12"/>
+      <c r="EU2" s="12"/>
+      <c r="EV2" s="12">
         <v>11.82</v>
       </c>
-      <c r="EW2" s="11"/>
-      <c r="EX2" s="11"/>
-      <c r="EY2" s="11"/>
-      <c r="EZ2" s="11">
+      <c r="EW2" s="12"/>
+      <c r="EX2" s="12"/>
+      <c r="EY2" s="12"/>
+      <c r="EZ2" s="12">
         <v>10.039999999999999</v>
       </c>
-      <c r="FA2" s="11"/>
-      <c r="FB2" s="11"/>
-      <c r="FC2" s="11"/>
-      <c r="FD2" s="11">
+      <c r="FA2" s="12"/>
+      <c r="FB2" s="12"/>
+      <c r="FC2" s="12"/>
+      <c r="FD2" s="12">
         <v>8.26</v>
       </c>
-      <c r="FE2" s="11"/>
-      <c r="FF2" s="11"/>
-      <c r="FG2" s="11"/>
-      <c r="FH2" s="11">
+      <c r="FE2" s="12"/>
+      <c r="FF2" s="12"/>
+      <c r="FG2" s="12"/>
+      <c r="FH2" s="12">
         <v>6.48</v>
       </c>
-      <c r="FI2" s="11"/>
-      <c r="FJ2" s="11"/>
-      <c r="FK2" s="11"/>
-      <c r="FL2" s="11">
+      <c r="FI2" s="12"/>
+      <c r="FJ2" s="12"/>
+      <c r="FK2" s="12"/>
+      <c r="FL2" s="12">
         <v>4.95</v>
       </c>
-      <c r="FM2" s="11"/>
-      <c r="FN2" s="11"/>
-      <c r="FO2" s="11"/>
+      <c r="FM2" s="12"/>
+      <c r="FN2" s="12"/>
+      <c r="FO2" s="12"/>
     </row>
     <row r="3" spans="1:171" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="BH3" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="BI3" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="BK3" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="BL3" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="BM3" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="BN3" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="BO3" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="BP3" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="BQ3" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="BR3" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="BS3" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BT3" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BU3" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BV3" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BW3" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BX3" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BY3" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BZ3" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="CA3" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="CB3" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="CC3" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="CD3" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="CE3" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="CF3" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="BM3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="BN3" s="3" t="s">
+      <c r="CH3" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="BO3" s="3" t="s">
+      <c r="CI3" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="BP3" s="3" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="BQ3" s="3" t="s">
+      <c r="CK3" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="CL3" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="BS3" s="3" t="s">
+      <c r="CM3" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="BT3" s="3" t="s">
+      <c r="CN3" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="CO3" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="BV3" s="3" t="s">
+      <c r="CP3" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="CQ3" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="CR3" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BY3" s="3" t="s">
+      <c r="CS3" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BZ3" s="3" t="s">
+      <c r="CT3" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CU3" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="CB3" s="3" t="s">
+      <c r="CV3" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CC3" s="3" t="s">
+      <c r="CW3" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CX3" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="CE3" s="3" t="s">
+      <c r="CY3" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="CF3" s="3" t="s">
+      <c r="CZ3" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CG3" s="3" t="s">
+      <c r="DA3" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="CH3" s="3" t="s">
+      <c r="DB3" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="CI3" s="3" t="s">
+      <c r="DC3" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="CJ3" s="3" t="s">
+      <c r="DD3" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="CK3" s="3" t="s">
+      <c r="DE3" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="CL3" s="3" t="s">
+      <c r="DF3" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="CM3" s="3" t="s">
+      <c r="DG3" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="CN3" s="3" t="s">
+      <c r="DH3" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="CO3" s="3" t="s">
+      <c r="DI3" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="CP3" s="3" t="s">
+      <c r="DJ3" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="CQ3" s="3" t="s">
+      <c r="DK3" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="CR3" s="3" t="s">
+      <c r="DL3" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="CS3" s="3" t="s">
+      <c r="DM3" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="CT3" s="3" t="s">
+      <c r="DN3" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="CU3" s="3" t="s">
+      <c r="DO3" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="DP3" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="CW3" s="3" t="s">
+      <c r="DQ3" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="CX3" s="3" t="s">
+      <c r="DR3" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="CY3" s="3" t="s">
+      <c r="DS3" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="CZ3" s="3" t="s">
+      <c r="DT3" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="DA3" s="3" t="s">
+      <c r="DU3" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DV3" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="DC3" s="3" t="s">
+      <c r="DW3" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="DD3" s="3" t="s">
+      <c r="DX3" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="DE3" s="3" t="s">
+      <c r="DY3" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="DF3" s="3" t="s">
+      <c r="DZ3" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="DG3" s="3" t="s">
+      <c r="EA3" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="DH3" s="3" t="s">
+      <c r="EB3" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="DI3" s="3" t="s">
+      <c r="EC3" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="DJ3" s="3" t="s">
+      <c r="ED3" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="DK3" s="3" t="s">
+      <c r="EE3" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="DL3" s="3" t="s">
+      <c r="EF3" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="DM3" s="3" t="s">
+      <c r="EG3" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="DN3" s="3" t="s">
+      <c r="EH3" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="DO3" s="3" t="s">
+      <c r="EI3" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="DP3" s="3" t="s">
+      <c r="EJ3" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="DQ3" s="3" t="s">
+      <c r="EK3" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="DR3" s="3" t="s">
+      <c r="EL3" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="DS3" s="3" t="s">
+      <c r="EM3" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="DT3" s="3" t="s">
+      <c r="EN3" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="DU3" s="3" t="s">
+      <c r="EO3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="DV3" s="3" t="s">
+      <c r="EP3" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="DW3" s="3" t="s">
+      <c r="EQ3" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="DX3" s="3" t="s">
+      <c r="ER3" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="DY3" s="3" t="s">
+      <c r="ES3" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="DZ3" s="3" t="s">
+      <c r="ET3" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="EA3" s="3" t="s">
+      <c r="EU3" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="EB3" s="3" t="s">
+      <c r="EV3" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="EC3" s="3" t="s">
+      <c r="EW3" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="ED3" s="3" t="s">
+      <c r="EX3" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="EE3" s="3" t="s">
+      <c r="EY3" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="EF3" s="3" t="s">
+      <c r="EZ3" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="EG3" s="3" t="s">
+      <c r="FA3" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="EH3" s="3" t="s">
+      <c r="FB3" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="EI3" s="3" t="s">
+      <c r="FC3" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="EJ3" s="3" t="s">
+      <c r="FD3" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="EK3" s="3" t="s">
+      <c r="FE3" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="EL3" s="3" t="s">
+      <c r="FF3" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="EM3" s="3" t="s">
+      <c r="FG3" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="EN3" s="3" t="s">
+      <c r="FH3" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="EO3" s="3" t="s">
+      <c r="FI3" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="EP3" s="3" t="s">
+      <c r="FJ3" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="EQ3" s="3" t="s">
+      <c r="FK3" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="ER3" s="3" t="s">
+      <c r="FL3" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="ES3" s="3" t="s">
+      <c r="FM3" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="ET3" s="3" t="s">
+      <c r="FN3" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="EU3" s="3" t="s">
+      <c r="FO3" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="EV3" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="EW3" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="EX3" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="EY3" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="EZ3" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="FA3" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="FB3" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="FC3" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="FD3" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="FE3" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="FF3" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="FG3" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="FH3" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="FI3" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="FJ3" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="FK3" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="FL3" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="FM3" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="FN3" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="FO3" s="3" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:171" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>172</v>
       </c>
@@ -3069,514 +3026,514 @@
         <v>173</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="BB5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="BC5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AJ5" s="1" t="s">
+      <c r="BD5" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="BE5" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="BF5" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="BG5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="BH5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="BI5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AP5" s="1" t="s">
+      <c r="BJ5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="BK5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="BL5" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="BM5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="BN5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="BO5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AV5" s="1" t="s">
+      <c r="BP5" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="BQ5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="BR5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="BS5" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="BT5" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BU5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BV5" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BW5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BX5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BE5" s="1" t="s">
+      <c r="BY5" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BZ5" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BG5" s="1" t="s">
+      <c r="CA5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BH5" s="1" t="s">
+      <c r="CB5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BI5" s="1" t="s">
+      <c r="CC5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BJ5" s="1" t="s">
+      <c r="CD5" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BK5" s="1" t="s">
+      <c r="CE5" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BL5" s="1" t="s">
+      <c r="CF5" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BM5" s="1" t="s">
+      <c r="CG5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="BN5" s="1" t="s">
+      <c r="CH5" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="CI5" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BP5" s="1" t="s">
+      <c r="CJ5" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BQ5" s="1" t="s">
+      <c r="CK5" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BR5" s="1" t="s">
+      <c r="CL5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BS5" s="1" t="s">
+      <c r="CM5" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="BT5" s="1" t="s">
+      <c r="CN5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="BU5" s="1" t="s">
+      <c r="CO5" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="BV5" s="1" t="s">
+      <c r="CP5" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="BW5" s="1" t="s">
+      <c r="CQ5" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BX5" s="1" t="s">
+      <c r="CR5" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BY5" s="1" t="s">
+      <c r="CS5" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BZ5" s="1" t="s">
+      <c r="CT5" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CA5" s="1" t="s">
+      <c r="CU5" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CB5" s="1" t="s">
+      <c r="CV5" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CC5" s="1" t="s">
+      <c r="CW5" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CD5" s="1" t="s">
+      <c r="CX5" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CE5" s="1" t="s">
+      <c r="CY5" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="CF5" s="1" t="s">
+      <c r="CZ5" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="CG5" s="1" t="s">
+      <c r="DA5" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="CH5" s="1" t="s">
+      <c r="DB5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="CI5" s="1" t="s">
+      <c r="DC5" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="CJ5" s="1" t="s">
+      <c r="DD5" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="CK5" s="1" t="s">
+      <c r="DE5" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="CL5" s="1" t="s">
+      <c r="DF5" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="CM5" s="1" t="s">
+      <c r="DG5" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="CN5" s="1" t="s">
+      <c r="DH5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="CO5" s="1" t="s">
+      <c r="DI5" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="CP5" s="1" t="s">
+      <c r="DJ5" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="CQ5" s="1" t="s">
+      <c r="DK5" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="CR5" s="1" t="s">
+      <c r="DL5" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="CS5" s="1" t="s">
+      <c r="DM5" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="CT5" s="1" t="s">
+      <c r="DN5" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="CU5" s="1" t="s">
+      <c r="DO5" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="CV5" s="1" t="s">
+      <c r="DP5" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="CW5" s="1" t="s">
+      <c r="DQ5" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="CX5" s="1" t="s">
+      <c r="DR5" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="CY5" s="1" t="s">
+      <c r="DS5" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="CZ5" s="1" t="s">
+      <c r="DT5" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="DA5" s="1" t="s">
+      <c r="DU5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="DB5" s="1" t="s">
+      <c r="DV5" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="DC5" s="1" t="s">
+      <c r="DW5" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="DD5" s="1" t="s">
+      <c r="DX5" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="DE5" s="1" t="s">
+      <c r="DY5" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="DF5" s="1" t="s">
+      <c r="DZ5" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="DG5" s="1" t="s">
+      <c r="EA5" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="DH5" s="1" t="s">
+      <c r="EB5" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="DI5" s="1" t="s">
+      <c r="EC5" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="DJ5" s="1" t="s">
+      <c r="ED5" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="DK5" s="1" t="s">
+      <c r="EE5" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="DL5" s="1" t="s">
+      <c r="EF5" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="DM5" s="1" t="s">
+      <c r="EG5" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="DN5" s="1" t="s">
+      <c r="EH5" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="DO5" s="1" t="s">
+      <c r="EI5" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="DP5" s="1" t="s">
+      <c r="EJ5" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="DQ5" s="1" t="s">
+      <c r="EK5" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="DR5" s="1" t="s">
+      <c r="EL5" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="DS5" s="1" t="s">
+      <c r="EM5" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="DT5" s="1" t="s">
+      <c r="EN5" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="DU5" s="1" t="s">
+      <c r="EO5" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="DV5" s="1" t="s">
+      <c r="EP5" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="DW5" s="1" t="s">
+      <c r="EQ5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="DX5" s="1" t="s">
+      <c r="ER5" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="DY5" s="1" t="s">
+      <c r="ES5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="DZ5" s="1" t="s">
+      <c r="ET5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="EA5" s="1" t="s">
+      <c r="EU5" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="EB5" s="1" t="s">
+      <c r="EV5" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="EC5" s="1" t="s">
+      <c r="EW5" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="ED5" s="1" t="s">
+      <c r="EX5" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="EE5" s="1" t="s">
+      <c r="EY5" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="EF5" s="1" t="s">
+      <c r="EZ5" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="EG5" s="1" t="s">
+      <c r="FA5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="EH5" s="1" t="s">
+      <c r="FB5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="EI5" s="1" t="s">
+      <c r="FC5" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="EJ5" s="1" t="s">
+      <c r="FD5" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="EK5" s="1" t="s">
+      <c r="FE5" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="EL5" s="1" t="s">
+      <c r="FF5" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="EM5" s="1" t="s">
+      <c r="FG5" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="EN5" s="1" t="s">
+      <c r="FH5" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="EO5" s="1" t="s">
+      <c r="FI5" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="EP5" s="1" t="s">
+      <c r="FJ5" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="EQ5" s="1" t="s">
+      <c r="FK5" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="ER5" s="1" t="s">
+      <c r="FL5" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="ES5" s="1" t="s">
+      <c r="FM5" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="ET5" s="1" t="s">
+      <c r="FN5" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="EU5" s="1" t="s">
+      <c r="FO5" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="EV5" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="EW5" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="EX5" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="EY5" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="EZ5" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="FA5" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="FB5" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="FC5" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="FD5" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="FE5" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="FF5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="FG5" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="FH5" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="FI5" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="FJ5" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="FK5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="FL5" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="FM5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="FN5" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="FO5" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:171" x14ac:dyDescent="0.15">
@@ -22760,23 +22717,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="DF2:DK2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BP2:BU2"/>
-    <mergeCell ref="BV2:CA2"/>
-    <mergeCell ref="CB2:CG2"/>
+  <mergeCells count="33">
     <mergeCell ref="FL2:FO2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="EP2:EU2"/>
@@ -22793,6 +22734,23 @@
     <mergeCell ref="CN2:CS2"/>
     <mergeCell ref="CT2:CY2"/>
     <mergeCell ref="CZ2:DE2"/>
+    <mergeCell ref="DF2:DK2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BP2:BU2"/>
+    <mergeCell ref="BV2:CA2"/>
+    <mergeCell ref="CB2:CG2"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="R1:T1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23355,101 +23313,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1">
-        <v>43437.485506539299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/finished/8高炉/高炉冷却壁温度日报表.xlsx
+++ b/excel/finished/8高炉/高炉冷却壁温度日报表.xlsx
@@ -1313,8 +1313,11 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1325,11 +1328,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1646,7 +1646,8 @@
   <dimension ref="A1:FO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1655,7 +1656,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:171" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -1680,8 +1681,8 @@
       </c>
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="12"/>
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
@@ -1761,242 +1762,242 @@
       <c r="CU1" s="6"/>
     </row>
     <row r="2" spans="1:171" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="13">
         <v>37.85</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13">
         <v>37.195</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13">
         <v>36.344999999999999</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12">
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13">
         <v>35.234999999999999</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12">
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13">
         <v>34.384999999999998</v>
       </c>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12">
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13">
         <v>33.274999999999999</v>
       </c>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12">
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13">
         <v>32.424999999999997</v>
       </c>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12">
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13">
         <v>31.315000000000001</v>
       </c>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12">
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13">
         <v>30.465</v>
       </c>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12">
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13">
         <v>29.355</v>
       </c>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12">
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="13"/>
+      <c r="BJ2" s="13">
         <v>28.504999999999999</v>
       </c>
-      <c r="BK2" s="12"/>
-      <c r="BL2" s="12"/>
-      <c r="BM2" s="12"/>
-      <c r="BN2" s="12"/>
-      <c r="BO2" s="12"/>
-      <c r="BP2" s="12">
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="13"/>
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="13"/>
+      <c r="BO2" s="13"/>
+      <c r="BP2" s="13">
         <v>27.395</v>
       </c>
-      <c r="BQ2" s="12"/>
-      <c r="BR2" s="12"/>
-      <c r="BS2" s="12"/>
-      <c r="BT2" s="12"/>
-      <c r="BU2" s="12"/>
-      <c r="BV2" s="12">
+      <c r="BQ2" s="13"/>
+      <c r="BR2" s="13"/>
+      <c r="BS2" s="13"/>
+      <c r="BT2" s="13"/>
+      <c r="BU2" s="13"/>
+      <c r="BV2" s="13">
         <v>26.545000000000002</v>
       </c>
-      <c r="BW2" s="12"/>
-      <c r="BX2" s="12"/>
-      <c r="BY2" s="12"/>
-      <c r="BZ2" s="12"/>
-      <c r="CA2" s="12"/>
-      <c r="CB2" s="12">
+      <c r="BW2" s="13"/>
+      <c r="BX2" s="13"/>
+      <c r="BY2" s="13"/>
+      <c r="BZ2" s="13"/>
+      <c r="CA2" s="13"/>
+      <c r="CB2" s="13">
         <v>25.48</v>
       </c>
-      <c r="CC2" s="12"/>
-      <c r="CD2" s="12"/>
-      <c r="CE2" s="12"/>
-      <c r="CF2" s="12"/>
-      <c r="CG2" s="12"/>
-      <c r="CH2" s="12">
+      <c r="CC2" s="13"/>
+      <c r="CD2" s="13"/>
+      <c r="CE2" s="13"/>
+      <c r="CF2" s="13"/>
+      <c r="CG2" s="13"/>
+      <c r="CH2" s="13">
         <v>24.66</v>
       </c>
-      <c r="CI2" s="12"/>
-      <c r="CJ2" s="12"/>
-      <c r="CK2" s="12"/>
-      <c r="CL2" s="12"/>
-      <c r="CM2" s="12"/>
-      <c r="CN2" s="12">
+      <c r="CI2" s="13"/>
+      <c r="CJ2" s="13"/>
+      <c r="CK2" s="13"/>
+      <c r="CL2" s="13"/>
+      <c r="CM2" s="13"/>
+      <c r="CN2" s="13">
         <v>23.49</v>
       </c>
-      <c r="CO2" s="12"/>
-      <c r="CP2" s="12"/>
-      <c r="CQ2" s="12"/>
-      <c r="CR2" s="12"/>
-      <c r="CS2" s="12"/>
-      <c r="CT2" s="12">
+      <c r="CO2" s="13"/>
+      <c r="CP2" s="13"/>
+      <c r="CQ2" s="13"/>
+      <c r="CR2" s="13"/>
+      <c r="CS2" s="13"/>
+      <c r="CT2" s="13">
         <v>22.67</v>
       </c>
-      <c r="CU2" s="12"/>
-      <c r="CV2" s="12"/>
-      <c r="CW2" s="12"/>
-      <c r="CX2" s="12"/>
-      <c r="CY2" s="12"/>
-      <c r="CZ2" s="12">
+      <c r="CU2" s="13"/>
+      <c r="CV2" s="13"/>
+      <c r="CW2" s="13"/>
+      <c r="CX2" s="13"/>
+      <c r="CY2" s="13"/>
+      <c r="CZ2" s="13">
         <v>21.5</v>
       </c>
-      <c r="DA2" s="12"/>
-      <c r="DB2" s="12"/>
-      <c r="DC2" s="12"/>
-      <c r="DD2" s="12"/>
-      <c r="DE2" s="12"/>
-      <c r="DF2" s="12">
+      <c r="DA2" s="13"/>
+      <c r="DB2" s="13"/>
+      <c r="DC2" s="13"/>
+      <c r="DD2" s="13"/>
+      <c r="DE2" s="13"/>
+      <c r="DF2" s="13">
         <v>20.68</v>
       </c>
-      <c r="DG2" s="12"/>
-      <c r="DH2" s="12"/>
-      <c r="DI2" s="12"/>
-      <c r="DJ2" s="12"/>
-      <c r="DK2" s="12"/>
-      <c r="DL2" s="12">
+      <c r="DG2" s="13"/>
+      <c r="DH2" s="13"/>
+      <c r="DI2" s="13"/>
+      <c r="DJ2" s="13"/>
+      <c r="DK2" s="13"/>
+      <c r="DL2" s="13">
         <v>19.625</v>
       </c>
-      <c r="DM2" s="12"/>
-      <c r="DN2" s="12"/>
-      <c r="DO2" s="12"/>
-      <c r="DP2" s="12"/>
-      <c r="DQ2" s="12"/>
-      <c r="DR2" s="12">
+      <c r="DM2" s="13"/>
+      <c r="DN2" s="13"/>
+      <c r="DO2" s="13"/>
+      <c r="DP2" s="13"/>
+      <c r="DQ2" s="13"/>
+      <c r="DR2" s="13">
         <v>18.754999999999999</v>
       </c>
-      <c r="DS2" s="12"/>
-      <c r="DT2" s="12"/>
-      <c r="DU2" s="12"/>
-      <c r="DV2" s="12"/>
-      <c r="DW2" s="12"/>
-      <c r="DX2" s="12">
+      <c r="DS2" s="13"/>
+      <c r="DT2" s="13"/>
+      <c r="DU2" s="13"/>
+      <c r="DV2" s="13"/>
+      <c r="DW2" s="13"/>
+      <c r="DX2" s="13">
         <v>17.7</v>
       </c>
-      <c r="DY2" s="12"/>
-      <c r="DZ2" s="12"/>
-      <c r="EA2" s="12"/>
-      <c r="EB2" s="12"/>
-      <c r="EC2" s="12"/>
-      <c r="ED2" s="12">
+      <c r="DY2" s="13"/>
+      <c r="DZ2" s="13"/>
+      <c r="EA2" s="13"/>
+      <c r="EB2" s="13"/>
+      <c r="EC2" s="13"/>
+      <c r="ED2" s="13">
         <v>17.02</v>
       </c>
-      <c r="EE2" s="12"/>
-      <c r="EF2" s="12"/>
-      <c r="EG2" s="12"/>
-      <c r="EH2" s="12"/>
-      <c r="EI2" s="12"/>
-      <c r="EJ2" s="12">
+      <c r="EE2" s="13"/>
+      <c r="EF2" s="13"/>
+      <c r="EG2" s="13"/>
+      <c r="EH2" s="13"/>
+      <c r="EI2" s="13"/>
+      <c r="EJ2" s="13">
         <v>16.14</v>
       </c>
-      <c r="EK2" s="12"/>
-      <c r="EL2" s="12"/>
-      <c r="EM2" s="12"/>
-      <c r="EN2" s="12"/>
-      <c r="EO2" s="12"/>
-      <c r="EP2" s="12">
+      <c r="EK2" s="13"/>
+      <c r="EL2" s="13"/>
+      <c r="EM2" s="13"/>
+      <c r="EN2" s="13"/>
+      <c r="EO2" s="13"/>
+      <c r="EP2" s="13">
         <v>15.46</v>
       </c>
-      <c r="EQ2" s="12"/>
-      <c r="ER2" s="12"/>
-      <c r="ES2" s="12"/>
-      <c r="ET2" s="12"/>
-      <c r="EU2" s="12"/>
-      <c r="EV2" s="12">
+      <c r="EQ2" s="13"/>
+      <c r="ER2" s="13"/>
+      <c r="ES2" s="13"/>
+      <c r="ET2" s="13"/>
+      <c r="EU2" s="13"/>
+      <c r="EV2" s="13">
         <v>11.82</v>
       </c>
-      <c r="EW2" s="12"/>
-      <c r="EX2" s="12"/>
-      <c r="EY2" s="12"/>
-      <c r="EZ2" s="12">
+      <c r="EW2" s="13"/>
+      <c r="EX2" s="13"/>
+      <c r="EY2" s="13"/>
+      <c r="EZ2" s="13">
         <v>10.039999999999999</v>
       </c>
-      <c r="FA2" s="12"/>
-      <c r="FB2" s="12"/>
-      <c r="FC2" s="12"/>
-      <c r="FD2" s="12">
+      <c r="FA2" s="13"/>
+      <c r="FB2" s="13"/>
+      <c r="FC2" s="13"/>
+      <c r="FD2" s="13">
         <v>8.26</v>
       </c>
-      <c r="FE2" s="12"/>
-      <c r="FF2" s="12"/>
-      <c r="FG2" s="12"/>
-      <c r="FH2" s="12">
+      <c r="FE2" s="13"/>
+      <c r="FF2" s="13"/>
+      <c r="FG2" s="13"/>
+      <c r="FH2" s="13">
         <v>6.48</v>
       </c>
-      <c r="FI2" s="12"/>
-      <c r="FJ2" s="12"/>
-      <c r="FK2" s="12"/>
-      <c r="FL2" s="12">
+      <c r="FI2" s="13"/>
+      <c r="FJ2" s="13"/>
+      <c r="FK2" s="13"/>
+      <c r="FL2" s="13">
         <v>4.95</v>
       </c>
-      <c r="FM2" s="12"/>
-      <c r="FN2" s="12"/>
-      <c r="FO2" s="12"/>
+      <c r="FM2" s="13"/>
+      <c r="FN2" s="13"/>
+      <c r="FO2" s="13"/>
     </row>
     <row r="3" spans="1:171" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
@@ -2509,7 +2510,7 @@
       </c>
     </row>
     <row r="4" spans="1:171" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>172</v>
       </c>
@@ -22718,6 +22719,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="DF2:DK2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BP2:BU2"/>
+    <mergeCell ref="BV2:CA2"/>
+    <mergeCell ref="CB2:CG2"/>
     <mergeCell ref="FL2:FO2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="EP2:EU2"/>
@@ -22734,23 +22752,6 @@
     <mergeCell ref="CN2:CS2"/>
     <mergeCell ref="CT2:CY2"/>
     <mergeCell ref="CZ2:DE2"/>
-    <mergeCell ref="DF2:DK2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BP2:BU2"/>
-    <mergeCell ref="BV2:CA2"/>
-    <mergeCell ref="CB2:CG2"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="R1:T1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
